--- a/Project 360.xlsx
+++ b/Project 360.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="1" r:id="rId1"/>
@@ -165,13 +165,13 @@
     <t>JD Francis, Drew Fulsom, David Kim, Justin Suh</t>
   </si>
   <si>
-    <t>We learned the value of properly planning out sprints.</t>
-  </si>
-  <si>
     <t>Iteration 3</t>
   </si>
   <si>
     <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>We learned the value (rather the importance) of properly planning out sprints.</t>
   </si>
 </sst>
 </file>
@@ -802,6 +802,48 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -840,48 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -941,6 +941,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1122,6 +1123,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1228,6 +1230,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1335,11 +1338,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="391891600"/>
-        <c:axId val="391894736"/>
+        <c:axId val="196297584"/>
+        <c:axId val="196298368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="391891600"/>
+        <c:axId val="196297584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391894736"/>
+        <c:crossAx val="196298368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1390,7 +1393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="391894736"/>
+        <c:axId val="196298368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391891600"/>
+        <c:crossAx val="196297584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2946,7 +2949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
@@ -2957,102 +2960,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:7" ht="111.75" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" ht="69" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3076,7 +3079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -3093,13 +3096,13 @@
   <sheetData>
     <row r="1" spans="3:9" ht="15" thickBot="1"/>
     <row r="2" spans="3:9" ht="15" thickBot="1">
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="3:9" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="C3" s="20" t="s">
@@ -3294,7 +3297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+    <sheetView topLeftCell="D5" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -3317,10 +3320,10 @@
         <v>19</v>
       </c>
       <c r="G5" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="37" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="3:8">
@@ -3450,138 +3453,138 @@
   <sheetData>
     <row r="4" spans="4:9" ht="15" thickBot="1"/>
     <row r="5" spans="4:9">
-      <c r="D5" s="58"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="63" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="63" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="6" spans="4:9">
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="52" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="4:9" ht="86.4">
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="4:9">
-      <c r="D8" s="60"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="4:9">
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="54">
         <v>152</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="54">
         <v>89</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="54">
         <v>43</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="54">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="4:9">
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="54">
         <v>16</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="54">
         <v>34</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="54">
         <v>29</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="4:9">
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="69">
+      <c r="E11" s="54"/>
+      <c r="F11" s="56">
         <f>SUM(F9:F10)</f>
         <v>168</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="57">
         <f>SUM(G9:G10)</f>
         <v>123</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="57">
         <v>72</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="57">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="4:9" ht="15" thickBot="1">
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68">
+      <c r="E12" s="54"/>
+      <c r="F12" s="55">
         <v>0.17799999999999999</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="55">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="55">
         <v>0.02</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="58">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
